--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.583</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.124</v>
+        <v>14.869</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.496</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.159</v>
+        <v>17.69</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.805</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.348</v>
+        <v>3.265</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.21798875147182</v>
+        <v>15.69146231379082</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.17911883708373</v>
+        <v>17.71193809785969</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.83273637045928</v>
+        <v>30.24725880913195</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.051299166156401</v>
+        <v>1.903277322307407</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.70373617404301</v>
+        <v>22.67968523911795</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.34075193832867</v>
+        <v>26.22032356166916</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.313181808831286</v>
+        <v>8.750587197543783</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.07313813967944</v>
+        <v>35.16814581782327</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.50267406579887</v>
+        <v>40.95942720314072</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.49400405283852</v>
+        <v>17.76441340682306</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.51614561042963</v>
+        <v>22.24012897867344</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.77410814466963</v>
+        <v>22.11569669042082</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.25164113462885</v>
+        <v>12.5731571995276</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.75521924317441</v>
+        <v>15.04671185603847</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.36964619043246</v>
+        <v>35.01650158729501</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.12635031903853</v>
+        <v>13.16819813564362</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.85664931050247</v>
+        <v>25.05074254034321</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.80191389219399</v>
+        <v>32.94598121477929</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.867845418067243</v>
+        <v>3.152442347093601</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.93495056996996</v>
+        <v>10.80742235657089</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.4154436419323</v>
+        <v>15.63474540376373</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.472484657340507</v>
+        <v>2.664269228782278</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.94192166489142</v>
+        <v>16.79301877071301</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.97613728634121</v>
+        <v>21.05938875744748</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.96222145047121</v>
+        <v>26.91376485268914</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.59750223457769</v>
+        <v>28.47942003272458</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.807414014746951</v>
+        <v>0.966900328979289</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.73183065335068</v>
+        <v>32.9679544788509</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.57183931507961</v>
+        <v>32.04525164863716</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.75516950704994</v>
+        <v>6.906420972459511</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.27574337800289</v>
+        <v>45.12083892806841</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.97475442543871</v>
+        <v>46.19500567263144</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.52674636688047</v>
+        <v>46.83967548669308</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.11380475617601</v>
+        <v>50.180753160384</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.6480070371659</v>
+        <v>49.90943561316973</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.46019119861741</v>
+        <v>23.94654280267518</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.91773828969299</v>
+        <v>44.10882021392389</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.75035610821954</v>
+        <v>53.93405972667075</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.26838195847622</v>
+        <v>19.08534009681407</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.54085236046433</v>
+        <v>32.8852508345374</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.67808578875455</v>
+        <v>34.74919526532472</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.205961634541122</v>
+        <v>3.992799337328133</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.89215702010194</v>
+        <v>29.6323377605138</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.92339004873626</v>
+        <v>34.60907445559951</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.9226191555119</v>
+        <v>3.224780844709034</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.46415568566406</v>
+        <v>45.49939564350579</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.12447355480798</v>
+        <v>9.030655014697807</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.5152418310698</v>
+        <v>21.39322971975486</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.01779556378032</v>
+        <v>27.4843067177921</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.175320255262434</v>
+        <v>0.4409226233482038</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26851791349268</v>
+        <v>33.46826129933778</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.2642030649188</v>
+        <v>36.48662269637627</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13.77062412881941</v>
+        <v>7.639031460755849</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.69034012202715</v>
+        <v>48.73117118830376</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55.66761208079555</v>
+        <v>52.06813938997206</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.37993317492258</v>
+        <v>53.45979158953052</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.19194505312148</v>
+        <v>53.91573175585764</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>57.13901036658198</v>
+        <v>55.84447781925303</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.58278913678494</v>
+        <v>9.12024440627356</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.09027147621678</v>
+        <v>33.2192732009339</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49.87271436524684</v>
+        <v>47.92331109368304</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17.95507919155122</v>
+        <v>11.19873385228123</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.58361423980362</v>
+        <v>29.87651345898802</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.46123630237069</v>
+        <v>33.58936743964303</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.60973369110842</v>
+        <v>2.873742730951957</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.30565650444911</v>
+        <v>24.67830668558513</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.93045722843485</v>
+        <v>38.15169743968724</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>13.01711224998154</v>
+        <v>4.580573066027089</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.91796501147997</v>
+        <v>42.8004571335978</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.464471101712683</v>
+        <v>4.940585232081201</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.45698745221284</v>
+        <v>14.10910345805832</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>19.24009997669949</v>
+        <v>22.87311079725179</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-6.678459777274546</v>
+        <v>0.1878447834463977</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>18.45195510812194</v>
+        <v>29.61871507565698</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.01783835707019</v>
+        <v>36.92222759758153</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-3.61430711805784</v>
+        <v>1.867669758872839</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.20111218623177</v>
+        <v>43.9574445284043</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.08157574397567</v>
+        <v>50.12487717191313</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.25283934802216</v>
+        <v>40.49167447831188</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.35581024413059</v>
+        <v>43.67980353249132</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.68418348382657</v>
+        <v>45.17453880014226</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.582284473857339</v>
+        <v>4.929329962573544</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>18.03950796050382</v>
+        <v>25.94876602544506</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.91818546007436</v>
+        <v>46.26803574225153</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.454917077604604</v>
+        <v>6.74867409106194</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.61164674623604</v>
+        <v>26.14756718826476</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.79855547671408</v>
+        <v>34.40045974502503</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-8.147236050789257</v>
+        <v>3.836829523097609</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10.97688716980159</v>
+        <v>24.40487008241439</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.94634744399612</v>
+        <v>38.23433407327946</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-7.722506933227083</v>
+        <v>1.54082729984307</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.51129612332529</v>
+        <v>36.97911570356534</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.53667251274335</v>
+        <v>21.56724301984741</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.1755001266071</v>
+        <v>18.04514710016608</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.94443904807724</v>
+        <v>31.69159735324458</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.96839962574101</v>
+        <v>36.1714039121471</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.74999491699908</v>
+        <v>4.663637966815539</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.46802977603019</v>
+        <v>13.19452913649929</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.31114717399922</v>
+        <v>19.59481948838711</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.54970628810461</v>
+        <v>10.29385972375084</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.76789502800503</v>
+        <v>20.27061593684617</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.93410083084604</v>
+        <v>32.51840119933237</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.6463707530379779</v>
+        <v>2.981010839509626</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.78377111172148</v>
+        <v>9.405440224471707</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.6288704887765</v>
+        <v>13.1036606826649</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.033122905336195</v>
+        <v>2.575577665587733</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.57929247448485</v>
+        <v>16.79108816999382</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.42974650252938</v>
+        <v>35.51951967735333</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.42189609528844</v>
+        <v>19.92833861372137</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.30542835962599</v>
+        <v>41.91662473749925</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>59.02712037426779</v>
+        <v>46.67994374617017</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.593119967857953</v>
+        <v>3.717038421062771</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.61872279075855</v>
+        <v>16.28410167539812</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.04915689990848</v>
+        <v>25.44528364064896</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.76451136441493</v>
+        <v>54.398242756805</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.20058961122371</v>
+        <v>53.90757414672389</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.65078584410758</v>
+        <v>60.84554234718917</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.92949672912942</v>
+        <v>60.80096107740793</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.67277672884163</v>
+        <v>20.11850897054144</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.53314808136154</v>
+        <v>55.62712127721383</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54.94061343219678</v>
+        <v>58.7098050241747</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.16806457375714</v>
+        <v>23.75774450154079</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.02001162984755</v>
+        <v>36.40707662393382</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.09415023702093</v>
+        <v>42.95461340708192</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.59221019185944</v>
+        <v>5.246500393565459</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.02563720323379</v>
+        <v>40.62944950039493</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.90233124467336</v>
+        <v>43.59807759276597</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>14.67474193187111</v>
+        <v>6.318278263409699</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>59.74509666155909</v>
+        <v>61.87354219903666</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.44266875329656</v>
+        <v>66.62648653846875</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.63044422474374</v>
+        <v>77.50784330157541</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.39907144264541</v>
+        <v>80.95219545347015</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>82.59116484577692</v>
+        <v>84.55448215933269</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.59440026321737</v>
+        <v>31.3326770863856</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>65.56263971138493</v>
+        <v>73.516833592102</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>75.04744295582691</v>
+        <v>76.96979116992112</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.6286738577085</v>
+        <v>58.78651008690298</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.46867988607073</v>
+        <v>43.79349656066108</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.72360792891283</v>
+        <v>50.46302869690624</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.76094591038739</v>
+        <v>59.18801261874613</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.16723619334093</v>
+        <v>8.681780613870263</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.89845883457063</v>
+        <v>49.54488092332673</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>57.32846028277233</v>
+        <v>56.90824765277374</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.4729795429882</v>
+        <v>13.01710948733037</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.87521720498395</v>
+        <v>33.84745822556431</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>46.59949361821945</v>
+        <v>41.83404122345057</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13.78842350225916</v>
+        <v>3.333692314374876</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.41097393981652</v>
+        <v>37.49293773957926</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.68530739101831</v>
+        <v>47.35741300923824</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>17.56916516349939</v>
+        <v>6.623938811537986</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.22349144919171</v>
+        <v>60.49750446472245</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>72.1176525070707</v>
+        <v>72.02647511541983</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>73.23031869149378</v>
+        <v>75.76999183015721</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.04098218038513</v>
+        <v>78.08868313970171</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>86.83306576088772</v>
+        <v>87.86668163330644</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.00033547026724</v>
+        <v>11.97544340946809</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.13479622071765</v>
+        <v>66.58061961416685</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>78.85646858273729</v>
+        <v>80.11180788075099</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.03351436668304</v>
+        <v>57.04962202792935</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.48786706326817</v>
+        <v>24.96340128765791</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.68864814429139</v>
+        <v>32.77515606550287</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.93346580701269</v>
+        <v>44.72082792231461</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1.532368468722543</v>
+        <v>5.80029457095274</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.17772336618591</v>
+        <v>46.05290257644126</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.45118990800454</v>
+        <v>56.66094589749386</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3.632140080731214</v>
+        <v>8.448630099214686</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17.3845436617063</v>
+        <v>32.37854568953097</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.69865319038829</v>
+        <v>45.11868819817478</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-6.977012410881147</v>
+        <v>4.230879837639907</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>18.79262598392183</v>
+        <v>34.26003945589895</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.72972652909524</v>
+        <v>49.20670154700119</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-5.415797100886642</v>
+        <v>0.6091513566072742</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.45654717123205</v>
+        <v>51.49988993744549</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.62480419795958</v>
+        <v>72.24177538775864</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.62499473533902</v>
+        <v>58.79545886358746</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.04110332007632</v>
+        <v>67.78119082189586</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.47467337781411</v>
+        <v>87.47869645261719</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>4.8365735767768</v>
+        <v>6.565650464414365</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.9509076530861</v>
+        <v>55.72854666716374</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.63658122594125</v>
+        <v>77.03399549944452</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.53527798295215</v>
+        <v>14.43556251652215</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.52224605718522</v>
+        <v>17.9245673148622</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.8754490811606</v>
+        <v>31.18470982864083</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.529772579962545</v>
+        <v>1.006215526147894</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.56093351767579</v>
+        <v>23.37804248509329</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.58543026721666</v>
+        <v>26.51814876071557</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.986418996898831</v>
+        <v>7.240628037847824</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.92279358842614</v>
+        <v>42.01620796938604</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.20223210147307</v>
+        <v>46.44401563885502</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.66462750228067</v>
+        <v>22.41170443044596</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.35837216173773</v>
+        <v>31.79181593498698</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.08753979564312</v>
+        <v>32.11348529771213</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.13117403641472</v>
+        <v>18.1068190668418</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.89663305321406</v>
+        <v>19.34189180108789</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.62468741341068</v>
+        <v>43.12692301034747</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.43299836064349</v>
+        <v>11.6078421296359</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.2815036107054</v>
+        <v>25.39092144942985</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.28017079564147</v>
+        <v>30.28021315269197</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.5392299349600647</v>
+        <v>-2.099197206611745</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.82586838938932</v>
+        <v>9.739688912310012</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.71668952028027</v>
+        <v>13.67092287721652</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2.183435074789441</v>
+        <v>0.3597767351048979</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.51851365432357</v>
+        <v>26.76732385507294</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.42676398922511</v>
+        <v>17.88752032170482</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.1121534554907</v>
+        <v>24.19052354746605</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.90108868287921</v>
+        <v>30.2704119093246</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>8.416059279466921</v>
+        <v>1.609289488890727</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.46568801069861</v>
+        <v>33.75378964251233</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.99590402417353</v>
+        <v>34.00785964177078</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13.46299889814461</v>
+        <v>7.563437848790652</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.61773580856734</v>
+        <v>49.74353241995117</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.56492698753143</v>
+        <v>51.06342916291854</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.81701834829043</v>
+        <v>48.42999858921461</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.1158127246201</v>
+        <v>54.41077741772195</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.35365801121819</v>
+        <v>54.02308254177441</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>21.429009748836</v>
+        <v>24.17608708791189</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.14670753229264</v>
+        <v>46.35242938635616</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.26862991006833</v>
+        <v>54.56577510961152</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.71562340884456</v>
+        <v>18.78336023550679</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.9317250348401</v>
+        <v>32.30104470345414</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.5299850403177</v>
+        <v>34.76021026885671</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.885108423280217</v>
+        <v>-0.2079644891029737</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.682277548609</v>
+        <v>31.85307380811874</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.32389123981977</v>
+        <v>32.81918593967755</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.67279953976471</v>
+        <v>2.507303234892273</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.66319987599125</v>
+        <v>50.75476614478292</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.77535522349229</v>
+        <v>5.306132278811045</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.83654237016564</v>
+        <v>17.24382480744906</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.44743788899898</v>
+        <v>27.02782611459071</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.847831105830988</v>
+        <v>-1.009735290797931</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.98782698397147</v>
+        <v>31.25600688263674</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.65388407111493</v>
+        <v>33.78220806035665</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.43859103579977</v>
+        <v>5.929651594279104</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.88068324599038</v>
+        <v>48.3870980489508</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.06347148058695</v>
+        <v>53.35900366001935</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.67531705963712</v>
+        <v>52.85869268505738</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>52.25444043233693</v>
+        <v>55.29039213735102</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.9222394390352</v>
+        <v>61.83079971432932</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.73758222656548</v>
+        <v>6.763337461319022</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.38424219552068</v>
+        <v>33.06755645702306</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.40588763987431</v>
+        <v>42.84425355577858</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.51621432194921</v>
+        <v>7.916636655052944</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.08054662032045</v>
+        <v>29.17613237822549</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.43368218755227</v>
+        <v>32.53069489094868</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>7.33076520087592</v>
+        <v>-1.483282160667738</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.06738548900049</v>
+        <v>25.9639605768593</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37.31464825569392</v>
+        <v>34.78209941273266</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.68245986978685</v>
+        <v>2.972915840128966</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.93436256488726</v>
+        <v>45.64646135599412</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.276025019257152</v>
+        <v>2.68742986819181</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.03568946315987</v>
+        <v>13.01574905582598</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.78274075707102</v>
+        <v>25.83202184980451</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-5.687928822076931</v>
+        <v>-0.5045569914510502</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.55833293984001</v>
+        <v>30.64275152947877</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.69603086243503</v>
+        <v>36.81130342129214</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-1.511872276974606</v>
+        <v>0.7253363868138116</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.02758475557938</v>
+        <v>45.02677941369529</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.02165879677302</v>
+        <v>53.22543198549958</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.26906427920915</v>
+        <v>47.27516100936054</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.0987681576627</v>
+        <v>53.72999646493327</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.01996068215766</v>
+        <v>59.3105573358223</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.360337712274986</v>
+        <v>4.504438249783913</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.02207896874271</v>
+        <v>28.86653102318644</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.0990508607067</v>
+        <v>47.83761235565032</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.41861436760668</v>
+        <v>5.397702385888234</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>15.59121960867547</v>
+        <v>25.17913282021968</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>20.06120883958674</v>
+        <v>31.16978481158847</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-9.890478787101674</v>
+        <v>-1.905205392924895</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>11.39030440487225</v>
+        <v>22.72450170840854</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.87997853016022</v>
+        <v>31.12568353171764</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-7.39223364316245</v>
+        <v>-0.4940134372638134</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.44570141882043</v>
+        <v>37.11327428774506</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>41.35030702836865</v>
+        <v>28.87339253431381</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.65529962033412</v>
+        <v>20.54269671991029</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.80147722669745</v>
+        <v>38.09280804635512</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.38223335802864</v>
+        <v>38.20216141157238</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.912949779554852</v>
+        <v>8.227204330520475</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.22653369114904</v>
+        <v>18.63300884139934</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.08008030141435</v>
+        <v>27.7435348915134</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.71434396372522</v>
+        <v>11.76003805818626</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.96470630067346</v>
+        <v>24.43647344246758</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.12814478900879</v>
+        <v>36.68544705543627</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.4806255736391041</v>
+        <v>-1.467570489225519</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.934516739651</v>
+        <v>9.001229866504335</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.1160006114537</v>
+        <v>17.94409853602375</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.070034644496555</v>
+        <v>1.274535624607982</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>40.84501638218998</v>
+        <v>27.45340919482735</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.44131046980753</v>
+        <v>48.04984709913263</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>44.24910547400673</v>
+        <v>25.13017140204338</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>53.59011906686916</v>
+        <v>45.67403398877867</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>60.05307676366288</v>
+        <v>53.53660877346609</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.836754284490382</v>
+        <v>7.343919733805738</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>45.41852324935701</v>
+        <v>25.30236045197806</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.15795174340521</v>
+        <v>39.05373201833707</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.51940315771357</v>
+        <v>56.09848149626914</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>45.84263700100559</v>
+        <v>53.69798879230643</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.71969577126976</v>
+        <v>60.40832400848521</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.8217406564164</v>
+        <v>57.62460009928756</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.94199748806475</v>
+        <v>21.26826452975853</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>51.52147379440262</v>
+        <v>55.95391085984627</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.12494870018093</v>
+        <v>58.92611291624779</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.39163005413759</v>
+        <v>23.02967900999107</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.94851434715593</v>
+        <v>36.06951376746758</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.39926026646007</v>
+        <v>43.25845368679056</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.499124120231071</v>
+        <v>0.2911911228339399</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.05082066012026</v>
+        <v>42.36412890853022</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.47489018907208</v>
+        <v>43.87073532088839</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.83242214931006</v>
+        <v>5.011991378207615</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>60.53652600377914</v>
+        <v>64.59649752883305</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.32335580435743</v>
+        <v>68.49711851884078</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>67.55148386115322</v>
+        <v>74.00534510757072</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.94763030948928</v>
+        <v>77.68877731520305</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82.2184947956568</v>
+        <v>81.52458709274983</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.17717705579494</v>
+        <v>30.50222710749005</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>69.57719855274654</v>
+        <v>74.96784712872828</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>76.58313139675417</v>
+        <v>77.00902765857573</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.24316475895681</v>
+        <v>57.60996933219269</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.12637555045194</v>
+        <v>46.94609377250377</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>54.89196191589888</v>
+        <v>50.62567247633915</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>58.76545851041961</v>
+        <v>57.6183691944548</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.49696278624735</v>
+        <v>7.717076783895958</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.88528545283086</v>
+        <v>48.8892819046839</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>58.54910761045893</v>
+        <v>55.40228622611366</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.79836493242366</v>
+        <v>10.97881151384172</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.86400761911224</v>
+        <v>33.62570646630104</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.99327082681394</v>
+        <v>41.86076186437074</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.69328125793506</v>
+        <v>-1.665697261582149</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.37392755889848</v>
+        <v>37.26488928262251</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.16353290630105</v>
+        <v>44.82173030643197</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.59537313042243</v>
+        <v>5.28615869011394</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>62.74845391848086</v>
+        <v>61.45026514273486</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>72.77413880210437</v>
+        <v>71.86109803240072</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>70.08299738216105</v>
+        <v>71.33409033741562</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.66647836471236</v>
+        <v>76.54454293403241</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.50437801168957</v>
+        <v>86.37020311131505</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.65602908932458</v>
+        <v>10.74356503080846</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>71.13457527467469</v>
+        <v>71.18469752678347</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>79.33775834371413</v>
+        <v>77.90608284983911</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.41419441257488</v>
+        <v>51.98604611593004</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.0861781157866</v>
+        <v>27.19455714671262</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.73790855242445</v>
+        <v>34.14723209543875</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.63209562283735</v>
+        <v>39.91430405097977</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.764694631112628</v>
+        <v>5.679783502277321</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.07983077895988</v>
+        <v>42.52598175380783</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.49684175272837</v>
+        <v>50.74363538846127</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.341806180173496</v>
+        <v>6.553681034580496</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.91112598083269</v>
+        <v>32.10828139508544</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.45334681230683</v>
+        <v>43.67727925236335</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-8.665361661158549</v>
+        <v>-0.8588789692853673</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.2897461152092</v>
+        <v>35.83218912896578</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.66748890463143</v>
+        <v>45.49021240097468</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.865099659596591</v>
+        <v>0.6420364538366279</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.80758559241071</v>
+        <v>56.84212436175898</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.97290985737164</v>
+        <v>71.57377022770945</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>46.24553384060975</v>
+        <v>60.47369455602905</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.34067934948712</v>
+        <v>73.39231531058039</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.69704527297497</v>
+        <v>84.60473001042223</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>6.134115425557452</v>
+        <v>6.485908614590702</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>47.71888022845639</v>
+        <v>67.99996873364026</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>55.81840242948986</v>
+        <v>79.31637442719342</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.276216327886054</v>
+        <v>8.187911773894434</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.03751618327504</v>
+        <v>10.10949227868679</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.0817863064754</v>
+        <v>21.11479297994726</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.036966518886177</v>
+        <v>-0.07808989960070178</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.68455193037025</v>
+        <v>12.10811543332749</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.27704858676924</v>
+        <v>14.14145966049461</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3.561100894350216</v>
+        <v>4.041090802508332</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.20437807661607</v>
+        <v>25.7948342809989</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.98331353913886</v>
+        <v>29.50848579643541</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.68027015851129</v>
+        <v>11.51214508161355</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.05916232876301</v>
+        <v>21.23444167591253</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.07451401388222</v>
+        <v>21.75698922140553</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.717940556728156</v>
+        <v>12.09500529994748</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.10374207500336</v>
+        <v>10.35375865855851</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.65390848094853</v>
+        <v>27.31865312527284</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.49127590937997</v>
+        <v>12.04677629569884</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.6515193863943</v>
+        <v>25.93743733322073</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.07434897879696</v>
+        <v>31.05037313530964</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.247957648665478</v>
+        <v>-1.932831876830729</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.75329978543577</v>
+        <v>8.969300097998211</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.87533032322045</v>
+        <v>14.98299887646677</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.770621234896256</v>
+        <v>0.8733198723732478</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.87612709023107</v>
+        <v>28.69692272928079</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.40370691068719</v>
+        <v>11.14750794718759</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.8889400964025</v>
+        <v>16.49522209494291</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.37483514726952</v>
+        <v>21.10168739051317</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.223279214919691</v>
+        <v>-0.02802131218649961</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.92365662832126</v>
+        <v>24.05531419419983</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.02451766713259</v>
+        <v>25.06729934918888</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8.371906201980115</v>
+        <v>3.871747390454008</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.29587758168856</v>
+        <v>36.40768131815297</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.74115208989316</v>
+        <v>36.58861833809513</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.17259641647782</v>
+        <v>35.60006006124884</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.18019897031974</v>
+        <v>43.06929563535667</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.69095650675118</v>
+        <v>43.43151131247919</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.26009432954441</v>
+        <v>16.22517190239635</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.68510073779649</v>
+        <v>34.28402221801284</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.65822366913852</v>
+        <v>39.02178527783849</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.09997095529369</v>
+        <v>18.40546714555032</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.70256340892009</v>
+        <v>32.76562025296481</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.69771754527446</v>
+        <v>35.33278157672839</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>9.013215556932963</v>
+        <v>-0.8472814194934948</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.12231722278165</v>
+        <v>33.1894416898717</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.97767170432188</v>
+        <v>35.76931514057843</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.71975866051598</v>
+        <v>1.948030135560135</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>49.58664718727746</v>
+        <v>53.42318470628355</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.019231213336486</v>
+        <v>3.134831117750576</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.88764921387407</v>
+        <v>11.877615436865</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.19195380278661</v>
+        <v>20.78136028603022</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.873451594868989</v>
+        <v>-1.375234967401031</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.68010059739549</v>
+        <v>22.16594874918242</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.88916828078679</v>
+        <v>24.06549611467104</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>9.62734698868606</v>
+        <v>5.784765246494405</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.87017967287247</v>
+        <v>38.12146875424268</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>47.54877771608749</v>
+        <v>41.29521582949413</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.28714622274406</v>
+        <v>40.823297993163</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.58204566141965</v>
+        <v>43.4774506403685</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.50935371715128</v>
+        <v>52.02507753694461</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.81501587287051</v>
+        <v>4.405569672055467</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.18733785447498</v>
+        <v>23.31686252356664</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.06991829109492</v>
+        <v>30.24085240333914</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.15242449007692</v>
+        <v>10.37406267308199</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.11385703758935</v>
+        <v>31.91785145792067</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.85704871291315</v>
+        <v>34.6432315262649</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.675185428694551</v>
+        <v>-1.12755613046804</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.72738581934114</v>
+        <v>29.28561152306769</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.16300522436413</v>
+        <v>36.26092631794934</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.00533346227868</v>
+        <v>4.689509256350927</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.15102767845558</v>
+        <v>52.01780173308012</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2.979119697730877</v>
+        <v>0.7405000431916982</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.557020542513755</v>
+        <v>7.387481814504508</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.98892028934283</v>
+        <v>20.00220625670619</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-10.14374246423776</v>
+        <v>-1.121900211165741</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>9.706375915736519</v>
+        <v>19.20441382133405</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.38616659460583</v>
+        <v>26.90292376866664</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-6.878255442877873</v>
+        <v>-0.2381431896945578</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.38366846344206</v>
+        <v>30.48696930398426</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.85820688179667</v>
+        <v>40.2143209180142</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.32251583976608</v>
+        <v>33.46722789727052</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.85215856636177</v>
+        <v>39.02993884558784</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.04384981920643</v>
+        <v>47.99907645467782</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-0.06862427986239172</v>
+        <v>2.610640304850275</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.27763243174548</v>
+        <v>19.16900712602486</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.17082496073099</v>
+        <v>35.29015996361724</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1.639933144732044</v>
+        <v>7.307712428281459</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.18137433934731</v>
+        <v>28.3003822021032</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.04556956067881</v>
+        <v>32.87592487864725</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.968888260135102</v>
+        <v>-1.55353756195829</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.59320653539609</v>
+        <v>25.48754696913797</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.27386773797374</v>
+        <v>32.83814423716528</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-5.549260574911293</v>
+        <v>0.2474537435188431</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.14538181000433</v>
+        <v>41.98294268365291</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.68302177789517</v>
+        <v>31.30566040026086</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.26064880544624</v>
+        <v>22.66106457404448</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.75680327589206</v>
+        <v>40.74581337650646</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.42456365619332</v>
+        <v>40.22977643818568</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.306179820412444</v>
+        <v>9.241840669148647</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.18685035345332</v>
+        <v>22.33946282356677</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.06151498471663</v>
+        <v>31.52882155709607</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.1332612847449</v>
+        <v>14.0367195791889</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.7578091073673</v>
+        <v>26.63143400693027</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.63506479636416</v>
+        <v>39.5482410329456</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.8549838360827078</v>
+        <v>-2.3203885781769</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.82967991157762</v>
+        <v>7.590750496373278</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.46083679939225</v>
+        <v>15.30425887534841</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.480250075542987</v>
+        <v>0.4552048583456134</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>43.11730541736075</v>
+        <v>28.72683446860554</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>53.14238538930523</v>
+        <v>47.25470692870708</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.87237724346856</v>
+        <v>27.70975529015026</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.51829538306456</v>
+        <v>48.94483568263011</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>61.66837221854069</v>
+        <v>54.03179751112611</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.41233150483703</v>
+        <v>7.096111587111213</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.3128108046055</v>
+        <v>27.35100896437158</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.6739764217796</v>
+        <v>38.6199070500469</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>57.40600079983628</v>
+        <v>57.46809608832545</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.98152944376289</v>
+        <v>55.70659901594092</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.23255656233058</v>
+        <v>61.63458051468237</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.38923717063165</v>
+        <v>59.88515859219682</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.73672225266842</v>
+        <v>20.58392648304291</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.03351430572624</v>
+        <v>58.07684503298117</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>59.64855302637904</v>
+        <v>61.08642669405053</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.20216448953442</v>
+        <v>23.65121472918178</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.17598738534758</v>
+        <v>37.46206905865438</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.35227579255139</v>
+        <v>46.09069010165935</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.37889728872092</v>
+        <v>-0.3631637119442068</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.56815675963176</v>
+        <v>46.02603476919397</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.44398791145156</v>
+        <v>47.18697985690646</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>17.83376829346156</v>
+        <v>4.011385850502922</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.50056722913972</v>
+        <v>69.46377639567578</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.74348799690191</v>
+        <v>71.04438946318081</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.82795629333758</v>
+        <v>78.11537865618384</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>80.54744593398155</v>
+        <v>82.08267584912842</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.47167799757871</v>
+        <v>83.37873874485608</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.26532839076565</v>
+        <v>30.15806933536161</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>73.12260799581408</v>
+        <v>79.2916151834184</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>79.769153799043</v>
+        <v>80.82748840148777</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>60.43947269675589</v>
+        <v>61.53190730735784</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.52706915281185</v>
+        <v>51.6597029793769</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>58.68716736882013</v>
+        <v>56.19329233376038</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>61.57570775793727</v>
+        <v>61.18185415474109</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.53935502778933</v>
+        <v>11.68141096326622</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>55.66513004704926</v>
+        <v>54.46169675285928</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>61.34145383574185</v>
+        <v>59.89710577177605</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.83213414605851</v>
+        <v>13.75632941090612</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.32503418129975</v>
+        <v>36.28171550601829</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>48.16827634726277</v>
+        <v>45.2483493348483</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.77523593842873</v>
+        <v>-1.855701765959633</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.09697650889437</v>
+        <v>42.24188122139672</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.30209828249292</v>
+        <v>46.30430516716784</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.85173175401048</v>
+        <v>6.158160398064471</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.98997615007828</v>
+        <v>69.78767432193435</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.47302542574418</v>
+        <v>76.07243618543066</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>73.60571995089231</v>
+        <v>78.47478196108462</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>82.52304437154579</v>
+        <v>83.80413449385493</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>87.98481281069739</v>
+        <v>88.10833627745599</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.96194319666069</v>
+        <v>13.03079551696147</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>74.92459452365826</v>
+        <v>78.81837982799112</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>82.76232454778133</v>
+        <v>83.57085106137986</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>38.06723913991157</v>
+        <v>54.63021885345643</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.012390946429</v>
+        <v>32.7986760721393</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.04579672640057</v>
+        <v>39.74405010037296</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.9687250135984</v>
+        <v>45.31305465769059</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.373380395102424</v>
+        <v>8.583608463127366</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.39211841329188</v>
+        <v>47.14859701402315</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.80241027359642</v>
+        <v>53.0289169240411</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.971332289012743</v>
+        <v>8.474625061269467</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.95662705116898</v>
+        <v>34.49708291484137</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.20645595465403</v>
+        <v>46.30212767474504</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-7.04248465478438</v>
+        <v>-1.062373630194099</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.53393364491263</v>
+        <v>39.25768141791865</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.33011637450657</v>
+        <v>46.52597715473361</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-2.116646032690151</v>
+        <v>0.7014634027265068</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.50721440489323</v>
+        <v>62.99513638843619</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.10082584635823</v>
+        <v>74.12606742087273</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.27260587299606</v>
+        <v>67.72342845229637</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>58.6940049683847</v>
+        <v>79.59944323710114</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.67427236459147</v>
+        <v>87.8504388893648</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>7.996448064778803</v>
+        <v>8.510002328701422</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.02871770682239</v>
+        <v>75.12988668035287</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.74539065380332</v>
+        <v>83.04100547777993</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.31335752050845</v>
+        <v>11.82726985546628</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.49329761081317</v>
+        <v>13.41876397022775</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.43122717046505</v>
+        <v>23.09064759393861</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.292107472771825</v>
+        <v>2.316871989302289</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.08716551839889</v>
+        <v>16.8782222366391</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.93991902514333</v>
+        <v>19.72943759235215</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.079740216388346</v>
+        <v>6.738460089005191</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.07022687121269</v>
+        <v>25.96737149946928</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.13121031891675</v>
+        <v>28.90712415732827</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.03247883245898</v>
+        <v>13.64072808622065</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.32174397406432</v>
+        <v>17.2931956012469</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.3887947783282</v>
+        <v>16.34205861463159</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.16919280697073</v>
+        <v>11.72222185607416</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.59767047876353</v>
+        <v>10.86293039830073</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.14526223903301</v>
+        <v>25.03439141725678</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.23139315892197</v>
+        <v>9.305730289574644</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.26124370733524</v>
+        <v>17.40987920900075</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.31287096900394</v>
+        <v>26.085366187148</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.894785062391754</v>
+        <v>7.480199039456725</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.27130063481978</v>
+        <v>10.45114308432514</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.04138253449613</v>
+        <v>15.01733748225082</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.184818960196016</v>
+        <v>3.057348289273076</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.01847619470809</v>
+        <v>11.32636517337874</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.83848184292802</v>
+        <v>17.10056317507776</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.87399786880315</v>
+        <v>22.07721799627738</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.93043227974967</v>
+        <v>23.36764289024483</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.552387817425675</v>
+        <v>1.74057567907915</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.36976346642004</v>
+        <v>26.73562944447311</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.51120216936576</v>
+        <v>27.30837001179295</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.969550013728782</v>
+        <v>5.96239174736424</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.44059189340607</v>
+        <v>36.02203805750756</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>44.90267003547353</v>
+        <v>36.61343585849974</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.02795020998297</v>
+        <v>38.42346687131652</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.87360756795695</v>
+        <v>42.15054434212402</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>46.30083139489862</v>
+        <v>42.30056589517673</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.56198085560434</v>
+        <v>21.96234470526677</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.72402629840625</v>
+        <v>37.31459080021862</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.60556109949702</v>
+        <v>44.03692838153701</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.65650401846043</v>
+        <v>14.33889635539134</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.00858504392001</v>
+        <v>22.09139008222485</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.38609843338418</v>
+        <v>26.19390657749156</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.225368729485485</v>
+        <v>6.82277516585852</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.86230160648431</v>
+        <v>22.27396538847137</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.27740166677376</v>
+        <v>28.76510505305607</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>37.06947962293832</v>
+        <v>32.20300243305549</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.35803623407853</v>
+        <v>9.910933344470759</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.80679086108433</v>
+        <v>21.03615232657479</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.68170688817638</v>
+        <v>26.2210499346426</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.092287879070319</v>
+        <v>1.757079377510184</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.10842395720467</v>
+        <v>29.17447440722878</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.34209199837944</v>
+        <v>32.68257382613508</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.19157813623432</v>
+        <v>8.890317555947203</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>45.08686066735221</v>
+        <v>43.43008701047238</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.76839303293414</v>
+        <v>45.23497257040128</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>41.00770275139234</v>
+        <v>44.63665326853652</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.09196112872463</v>
+        <v>44.74704819453655</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>49.91009308140923</v>
+        <v>48.11863354847452</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.93297195715695</v>
+        <v>13.01912800804781</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.12500616527063</v>
+        <v>32.52025499188196</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.90793117641344</v>
+        <v>43.36046588705271</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.66105647060948</v>
+        <v>10.85317556595661</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.39302920162951</v>
+        <v>23.45356960410763</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.46227939230307</v>
+        <v>26.88304940161382</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.77399695624512</v>
+        <v>6.9850666627562</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.46636537052025</v>
+        <v>21.00420035760841</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.39734377511702</v>
+        <v>32.37395231483745</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.81634191431355</v>
+        <v>5.617733688321838</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.73062588099667</v>
+        <v>33.71526163877623</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>0.8648126818395445</v>
+        <v>5.81270841278727</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>8.94755587449696</v>
+        <v>13.29658649644378</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.06765830945055</v>
+        <v>20.35446093726441</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-6.292501848563208</v>
+        <v>1.415115660955795</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.7742822054739</v>
+        <v>24.89282185156459</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.58669438765437</v>
+        <v>31.86822878769535</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-4.73659052903422</v>
+        <v>2.041520778448447</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.06604075642746</v>
+        <v>36.32592708850625</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.62746796309354</v>
+        <v>40.76737380718022</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.46530972064765</v>
+        <v>31.77571891796027</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.82523189627014</v>
+        <v>33.88829881190448</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.00628908747107</v>
+        <v>36.73341124730966</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>3.401406335836841</v>
+        <v>7.278886565181242</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.6074243028139</v>
+        <v>23.37983375390425</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.4418456745122</v>
+        <v>40.38399661638194</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-0.3912512432186741</v>
+        <v>6.427665418104159</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>9.87291555037417</v>
+        <v>20.25473992865737</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.23133295085994</v>
+        <v>26.24004344126253</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-7.207630144009872</v>
+        <v>7.369041695722689</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.947259126458533</v>
+        <v>21.11289794894686</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>13.234193790958</v>
+        <v>31.34457164921138</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-9.157031678780413</v>
+        <v>1.677286274793328</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.12030318755592</v>
+        <v>28.59958473607807</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.46974033264746</v>
+        <v>14.73345293457226</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.6205331059661</v>
+        <v>12.87265053543794</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.6598032920563</v>
+        <v>26.73631233648083</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.18001597013846</v>
+        <v>31.28798628153584</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>4.290115471999075</v>
+        <v>4.331343948643163</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.73919642994382</v>
+        <v>9.140910217623553</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.52011836810041</v>
+        <v>12.65434780375628</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.85174869736911</v>
+        <v>10.7959412954812</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.57754407021882</v>
+        <v>18.13886623516588</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.57859998652994</v>
+        <v>30.07970349097626</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>1.633738712556197</v>
+        <v>7.079708205469974</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>18.16878073998912</v>
+        <v>9.854988294624963</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.64019069882865</v>
+        <v>12.69305955033159</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.3934379451739973</v>
+        <v>3.205978581919613</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.13950305665234</v>
+        <v>12.64578372535454</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.30901008730635</v>
+        <v>33.30547291838627</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.03644056334825</v>
+        <v>14.79385285830941</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.85894362194048</v>
+        <v>37.50991965241559</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.9078834272203</v>
+        <v>41.24995282320951</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.136438237506471</v>
+        <v>4.754268159732906</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.04359922681725</v>
+        <v>11.56509190362873</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.77036865084278</v>
+        <v>19.99053773383246</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.36121653462119</v>
+        <v>41.84570490218543</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.03237921225038</v>
+        <v>38.39536605700411</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.76023179777725</v>
+        <v>46.96359174014896</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.6352152002513</v>
+        <v>49.64263570696511</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.88852888540601</v>
+        <v>15.8817369739456</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.18780251864291</v>
+        <v>40.64757334841849</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.64726332135367</v>
+        <v>43.15612587631223</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.66657126869692</v>
+        <v>22.65097620884385</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.78279095424823</v>
+        <v>29.58787913627309</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.87801206234521</v>
+        <v>38.08175343929041</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>11.53305000325334</v>
+        <v>8.333008244301187</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.0119504936161</v>
+        <v>34.27687713572989</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.64401964120219</v>
+        <v>38.56988430045892</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>12.91566451682525</v>
+        <v>6.244149554947658</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>51.79380125221916</v>
+        <v>50.0253524445684</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.01283878149881</v>
+        <v>60.1852831771246</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.61505876989332</v>
+        <v>64.87838929220864</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>68.3252318900953</v>
+        <v>71.70647975509402</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.00083227171919</v>
+        <v>76.81320729737912</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.77441470210151</v>
+        <v>29.99469025883365</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.33271093576451</v>
+        <v>59.8924291708409</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>66.25120554834099</v>
+        <v>65.05450925902919</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.37605854558225</v>
+        <v>47.13144710145139</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.44417462913611</v>
+        <v>32.62301985636154</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.99339926430165</v>
+        <v>38.33742315902118</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.59245754986879</v>
+        <v>47.96451377712501</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.5994727713683</v>
+        <v>11.05589634762201</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.76082276122059</v>
+        <v>38.86711197418741</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>48.18899094236544</v>
+        <v>43.26508689282461</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.20428591061442</v>
+        <v>16.23553032039548</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.88656125437628</v>
+        <v>30.01756515014877</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.58951015747259</v>
+        <v>38.22885131172949</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>13.79943691706223</v>
+        <v>7.709720205482927</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>37.51337568834832</v>
+        <v>33.29403884977957</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>44.46166712383135</v>
+        <v>41.93873873686147</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>15.89545717730396</v>
+        <v>8.913946452887618</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>55.38559565285331</v>
+        <v>51.97826751415489</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.74079808980287</v>
+        <v>66.26000716162342</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>65.2490681650696</v>
+        <v>64.8788006565788</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>71.01555694468529</v>
+        <v>68.90166572600133</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.25385952608517</v>
+        <v>79.30966548314242</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.31032076041558</v>
+        <v>17.17748927113691</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>60.00689440668088</v>
+        <v>55.73242058351664</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70.09937976902731</v>
+        <v>68.5360412687097</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.55420473555879</v>
+        <v>43.43152460035573</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>17.31028813194586</v>
+        <v>17.60027980975055</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.78058505928202</v>
+        <v>24.13418240364092</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.56739871668317</v>
+        <v>35.54661704390242</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-1.279053904432861</v>
+        <v>7.059263670348518</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.84076972933843</v>
+        <v>35.63857481548176</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.08684557524527</v>
+        <v>42.37195803527295</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.935961575527026</v>
+        <v>11.19244056754404</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.99325995009507</v>
+        <v>28.88928959096447</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>23.23193779388186</v>
+        <v>40.9770472583496</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-6.145360409314921</v>
+        <v>8.245731780893312</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>14.75054546703057</v>
+        <v>30.53010719418929</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.365750520529</v>
+        <v>44.31907307758057</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-6.258355627081964</v>
+        <v>2.126880480423015</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.48476664634246</v>
+        <v>43.77736497055201</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.07109386284368</v>
+        <v>65.48819233027541</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>40.54588269517117</v>
+        <v>49.7655414078766</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.91046743453177</v>
+        <v>58.99341160983219</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.76564097299892</v>
+        <v>77.41908883458376</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2.965879345136645</v>
+        <v>9.773825101199865</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.68482237550957</v>
+        <v>44.3373788170307</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.71781447094593</v>
+        <v>65.70239626723664</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>11.70831546422232</v>
+        <v>11.83951590369607</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.94496969165254</v>
+        <v>13.59195522149163</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.77257431386078</v>
+        <v>25.69242829957312</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4.18137743278972</v>
+        <v>2.633164717529372</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.09762833657602</v>
+        <v>18.74286625029776</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.95372137625551</v>
+        <v>22.39809669915781</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>4.803071258159233</v>
+        <v>6.407195778505358</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.51107678592719</v>
+        <v>28.87182099086161</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.12972545563353</v>
+        <v>32.65645330378491</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.46732769797099</v>
+        <v>14.1705916641613</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.9107084802556</v>
+        <v>19.56202819971137</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.24579601982763</v>
+        <v>18.37937886592745</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.05129481913999</v>
+        <v>12.2719115063727</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.44538185016724</v>
+        <v>11.32651060351028</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.10249221122577</v>
+        <v>28.2314743632659</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.37464181773892</v>
+        <v>12.23292971680385</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.21648168298767</v>
+        <v>22.01964144554274</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.20238668721931</v>
+        <v>31.39740423567241</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>4.824442250931593</v>
+        <v>7.812982099760465</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.08239501314983</v>
+        <v>13.81615262800868</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.96089089981296</v>
+        <v>18.86876638227022</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2.403394335378792</v>
+        <v>3.349836064400481</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.84282218294278</v>
+        <v>18.38911929722112</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.65368983788187</v>
+        <v>17.90093684445667</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.77998831245993</v>
+        <v>23.0800119637334</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.66409361790839</v>
+        <v>25.22847900391363</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>7.962413574952447</v>
+        <v>2.325024974870285</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.94189439379106</v>
+        <v>29.92862351715407</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.02213775945825</v>
+        <v>30.31444048826498</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>10.23717405587222</v>
+        <v>6.187168420498107</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.46722368219241</v>
+        <v>39.80464622306029</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.43294821864522</v>
+        <v>39.80499843092635</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.04030427109797</v>
+        <v>41.78239868930656</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.98772809810701</v>
+        <v>45.10605417706117</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>49.66688709700287</v>
+        <v>44.84945066456655</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>18.94336327395818</v>
+        <v>23.04941240459332</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.12583798108789</v>
+        <v>40.16080514872694</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>44.07451106833719</v>
+        <v>46.9261992964896</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.33381990104082</v>
+        <v>18.82686791007913</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.55519626891902</v>
+        <v>28.37952239268798</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.77306021700692</v>
+        <v>31.24652674007444</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>11.7893671639117</v>
+        <v>7.945433764070028</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.37712088310504</v>
+        <v>29.6222026890701</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.81461054972296</v>
+        <v>34.35453751231796</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.62283157553712</v>
+        <v>42.47615982013097</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.16665259242965</v>
+        <v>8.999022651840569</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.71366161819485</v>
+        <v>21.11498097496031</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.4055288254364</v>
+        <v>28.22643014919388</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.538870868467839</v>
+        <v>1.515635363538738</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.70736426116102</v>
+        <v>31.49863590075348</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.8687560031474</v>
+        <v>35.05531121828501</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>12.4753079182554</v>
+        <v>8.23228410950809</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.12142779354333</v>
+        <v>46.08037489822246</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.29909789508118</v>
+        <v>48.05389403712617</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.06032572174338</v>
+        <v>48.03473393596248</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.24138369495807</v>
+        <v>48.08477410584828</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.29627227159653</v>
+        <v>51.38099685119914</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.31944351326653</v>
+        <v>11.78003151993143</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.54585129466451</v>
+        <v>33.32221334675397</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>46.37725485293181</v>
+        <v>44.82137988349685</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.39577709091384</v>
+        <v>13.82771476575799</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.0074566956101</v>
+        <v>29.52766552655668</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.90546630145143</v>
+        <v>31.84476709252177</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>13.44412491573534</v>
+        <v>7.973205715202592</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.07537428762208</v>
+        <v>28.47568296568112</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.02604028188767</v>
+        <v>38.08225621961449</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>13.79455574815519</v>
+        <v>6.745983481971027</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.37676504290213</v>
+        <v>44.87204044246081</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>0.5793641772170739</v>
+        <v>4.938270329467496</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>9.762605934044615</v>
+        <v>13.40290938440814</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.7485027933511</v>
+        <v>23.12032287009574</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-5.992424236027559</v>
+        <v>1.834027009080504</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>17.25796919545489</v>
+        <v>27.46416718374195</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.02987250040546</v>
+        <v>35.73515958161718</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-4.592271529497583</v>
+        <v>2.03491508713282</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.00240631189284</v>
+        <v>39.73234840629493</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.09775691798375</v>
+        <v>44.99342509778019</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.39685504416963</v>
+        <v>35.57183441203709</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.88386510844676</v>
+        <v>38.32864562093647</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.31836897139529</v>
+        <v>41.95538595835302</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>3.665031592207025</v>
+        <v>6.934559494120375</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>15.91276958952184</v>
+        <v>24.68001919190656</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.84516416588983</v>
+        <v>43.90822125362467</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2.195893870387875</v>
+        <v>8.797234809434865</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>14.34556883300246</v>
+        <v>26.17468179968023</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.57887520907858</v>
+        <v>31.83077285108119</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-4.753582179893395</v>
+        <v>8.227178833906923</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.37511384588536</v>
+        <v>27.52154381842786</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.70211248604393</v>
+        <v>36.86055814046917</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-6.38923438798142</v>
+        <v>2.328170046905168</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>23.60130021644281</v>
+        <v>38.20999400430087</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.78453572121906</v>
+        <v>22.71394778911948</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.26179423499968</v>
+        <v>18.32804143892551</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.94751925508215</v>
+        <v>36.05683511798294</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.25629313846733</v>
+        <v>39.70609524920692</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.204021628424439</v>
+        <v>7.08468845414745</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.52789329582401</v>
+        <v>15.04154668479118</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.19139613141812</v>
+        <v>19.84010193082772</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.41752281497527</v>
+        <v>10.54924070516298</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.95495443768514</v>
+        <v>18.69335966253781</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.6526014968519</v>
+        <v>34.30501658656286</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>2.611813392557062</v>
+        <v>7.367406444141412</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.77960680490776</v>
+        <v>11.58234060018231</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.89180235947434</v>
+        <v>15.43988935408931</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.6549236022996991</v>
+        <v>2.598159695416545</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.57921001605889</v>
+        <v>16.11072707997345</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>46.21909906597227</v>
+        <v>40.24408563569112</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>41.66636721380157</v>
+        <v>18.04717564032714</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>49.24762664990752</v>
+        <v>45.63828967673309</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>56.87469656159215</v>
+        <v>50.41001953575419</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.914525316897284</v>
+        <v>4.816274445499719</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.9863321922772</v>
+        <v>15.85239727994156</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>47.95487048839189</v>
+        <v>25.11474074911651</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.31850518173096</v>
+        <v>50.62027696107673</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.38603473483927</v>
+        <v>48.8326375393769</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.69420259679045</v>
+        <v>56.93794984730584</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.32937489241997</v>
+        <v>58.95955132254456</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.41163116666112</v>
+        <v>20.59940642154517</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>47.64870834869875</v>
+        <v>50.26012154225552</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>51.93195790542919</v>
+        <v>52.03670662098645</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.57280026950597</v>
+        <v>22.36928613592311</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>32.57160450601648</v>
+        <v>32.05606888957973</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.27728156793324</v>
+        <v>41.57914192095626</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.97488384963999</v>
+        <v>8.644774150012172</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.15472681222965</v>
+        <v>40.4077905587762</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.35285921574069</v>
+        <v>43.75121212072278</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>13.62305306622376</v>
+        <v>4.322857524204839</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.75995047458507</v>
+        <v>56.45772725326738</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.37545146500723</v>
+        <v>67.26810003031997</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.72521461601741</v>
+        <v>70.43361793547008</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>73.15403211038956</v>
+        <v>78.36190961832801</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.37267837028519</v>
+        <v>83.62446967195611</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>23.92231924389742</v>
+        <v>28.09303320808992</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>61.7545898131221</v>
+        <v>67.51858002444636</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.85937132938454</v>
+        <v>71.66246451656765</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.41940988051511</v>
+        <v>56.50769624822323</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.91039727900576</v>
+        <v>43.68513219172712</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.01999986413638</v>
+        <v>49.15625502751743</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.36893570948939</v>
+        <v>58.08226385453041</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.19189899433106</v>
+        <v>14.36595468566627</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>49.30821810040204</v>
+        <v>48.65116078590165</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.16712181216394</v>
+        <v>14.51995335152142</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.73219492482717</v>
+        <v>31.71201102280514</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.03657629196948</v>
+        <v>41.5096052210498</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.32564707843433</v>
+        <v>7.899115487233903</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.72416455138619</v>
+        <v>38.90683902005101</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>48.2366926889589</v>
+        <v>47.58124874737955</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.68769934516983</v>
+        <v>7.295382056303769</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>59.42220395065228</v>
+        <v>58.35704000491347</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>69.1649818948587</v>
+        <v>73.65188329254357</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>69.45013540402329</v>
+        <v>70.77544775512808</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>75.92443574574594</v>
+        <v>76.6567809129044</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>83.69075239065104</v>
+        <v>86.37447216265373</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.51723141594451</v>
+        <v>13.6953871153566</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>64.49702208925981</v>
+        <v>63.60023318331379</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>74.76383181030735</v>
+        <v>76.03816581640997</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.46409809034764</v>
+        <v>52.49607319894587</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.59795107367936</v>
+        <v>25.50085804029828</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.67912053031671</v>
+        <v>33.28236603499681</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.22583815794707</v>
+        <v>44.95329619400817</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2.143222409708546</v>
+        <v>9.715872763309147</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.23918130462727</v>
+        <v>45.06542358022838</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>32.32561037901923</v>
+        <v>50.89257695384131</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2.796960777614319</v>
+        <v>10.11850478655973</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>14.74355963758912</v>
+        <v>30.22149701704879</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.63912971174063</v>
+        <v>45.105934176894</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-4.753871701444925</v>
+        <v>9.102475383582533</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.86015555722947</v>
+        <v>34.88992613706341</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.06428445812171</v>
+        <v>50.1947370097657</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-5.597932083302772</v>
+        <v>1.663472222063294</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.42707163724548</v>
+        <v>49.12731116037122</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.44550544381197</v>
+        <v>73.37788137780346</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.65676041184075</v>
+        <v>55.25889122566402</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.76527675021879</v>
+        <v>67.79218760538232</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.16130401321241</v>
+        <v>87.4090110704262</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>4.084390076580178</v>
+        <v>8.739305515324066</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.10053886138275</v>
+        <v>53.10361155477817</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.34174842798067</v>
+        <v>73.73759712978772</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>8.477161059297835</v>
+        <v>10.56976024749622</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>12.84641215906464</v>
+        <v>10.8587500988139</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>19.30438085232912</v>
+        <v>22.28163725292719</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>2.537767727167725</v>
+        <v>4.853388181396014</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>17.46613897714553</v>
+        <v>19.65311384409775</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.66786627264418</v>
+        <v>22.14329042299328</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3.645774111231485</v>
+        <v>7.881938222420082</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.0258639109334</v>
+        <v>28.3794709851207</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.29501817458367</v>
+        <v>30.86413824208674</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.47568856250909</v>
+        <v>12.22133709604494</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.08453385715987</v>
+        <v>20.09648717613255</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.00888840580602</v>
+        <v>19.42473371502599</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>8.440868853575079</v>
+        <v>16.34567842846634</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>14.9148440392399</v>
+        <v>12.32826466853097</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.18788654014314</v>
+        <v>31.17062031739374</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.89919324022868</v>
+        <v>14.7979554574454</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.52811021683882</v>
+        <v>25.1749423127876</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.34569340198621</v>
+        <v>29.54559963051797</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>4.045584103972404</v>
+        <v>4.976941775346386</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.99262312174665</v>
+        <v>14.80737164744378</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.75598735242297</v>
+        <v>18.06105917361906</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.517964333722172</v>
+        <v>5.001913458221157</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.01300921416522</v>
+        <v>27.84481972331961</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.406797623676674</v>
+        <v>14.82529269257699</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.08876158609672</v>
+        <v>16.6214368439948</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.10267179007004</v>
+        <v>21.23904327642202</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>5.143584070413887</v>
+        <v>4.769957505881909</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.28031251502828</v>
+        <v>26.21463661336195</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>24.96420434783703</v>
+        <v>27.04968364563971</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>7.624800375512237</v>
+        <v>8.142108685173714</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.49314415595099</v>
+        <v>34.89890340972183</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>38.51047982238396</v>
+        <v>34.04986262780388</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.90677851450819</v>
+        <v>31.41979661730094</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.99319534283121</v>
+        <v>36.89807239331606</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.42355268638082</v>
+        <v>36.35775164887589</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.95679983934557</v>
+        <v>22.45599969575926</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.41266906823931</v>
+        <v>30.64763179303389</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.29065595195919</v>
+        <v>37.06161623218129</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>15.93222385141102</v>
+        <v>22.19327714880677</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.39808870908334</v>
+        <v>30.53940010217759</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.88867900960777</v>
+        <v>30.7321620429058</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.715676483630656</v>
+        <v>6.247079905110933</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.1222533412096</v>
+        <v>32.8105122065334</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.57361119667122</v>
+        <v>32.7176274424091</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>12.00512956227898</v>
+        <v>6.139227305418412</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.17381708157317</v>
+        <v>47.61443397560548</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>8.430288766082217</v>
+        <v>6.264662118637933</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>15.46936954034242</v>
+        <v>12.53196423731909</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>21.17238167161923</v>
+        <v>21.35666643904895</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>5.898478620112797</v>
+        <v>2.679788567457848</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.16115544133578</v>
+        <v>24.1729015231703</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.76156076063623</v>
+        <v>25.80729212072498</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>8.907519661000475</v>
+        <v>7.969570869466743</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>37.08548941891611</v>
+        <v>35.59292455604623</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>41.14022535528899</v>
+        <v>37.15348942336345</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.91344849329051</v>
+        <v>35.79364266143386</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.3930473928077</v>
+        <v>37.40914661670875</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.98695443544739</v>
+        <v>43.18637397600402</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>14.71528337264964</v>
+        <v>9.105962183824769</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>27.03479139947002</v>
+        <v>20.65060353503639</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.6813897240206</v>
+        <v>30.46987161710848</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.38665616976913</v>
+        <v>15.15916046629036</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.17407015661306</v>
+        <v>29.32997919498373</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.28182922405655</v>
+        <v>29.99385639473144</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>10.53764968537701</v>
+        <v>5.676696011028024</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.93077630410075</v>
+        <v>29.84467650697336</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.68202563822037</v>
+        <v>32.35451631203809</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>13.38732251848167</v>
+        <v>8.154013712946355</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>43.82739646773826</v>
+        <v>46.9397666825014</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1.734877936491995</v>
+        <v>3.214849860540177</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>4.154914182876876</v>
+        <v>7.54054020652022</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.02389655741334</v>
+        <v>18.83410639421763</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-6.785212682914238</v>
+        <v>2.872918384906189</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>10.85254321792903</v>
+        <v>22.53276107119106</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.05693289282583</v>
+        <v>28.0107084695499</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-5.048894338055846</v>
+        <v>2.675945620381331</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>21.44515557156252</v>
+        <v>30.13636151783765</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.37001856496121</v>
+        <v>35.80020757634561</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.82350878386895</v>
+        <v>30.4181443413875</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.51467919728909</v>
+        <v>33.98249754579406</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.54281487680589</v>
+        <v>39.28346492599844</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>2.09864361829641</v>
+        <v>5.585578266675174</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>11.845088347128</v>
+        <v>15.28105652521403</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.54585721359861</v>
+        <v>33.91048530849365</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2.986964086496166</v>
+        <v>11.60734744070297</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>14.56947351166518</v>
+        <v>27.43116956397749</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>17.84164863766647</v>
+        <v>29.52496745298381</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-4.486222370951462</v>
+        <v>5.384176771900318</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>12.82044842088585</v>
+        <v>28.1156332666079</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>15.97758949515389</v>
+        <v>30.32091283556787</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-3.272581910552627</v>
+        <v>4.060017713816674</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>25.07579634508003</v>
+        <v>40.39112580540545</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.58633574997111</v>
+        <v>29.67045814534719</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.98728425056429</v>
+        <v>22.28464519452035</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>33.27327533826415</v>
+        <v>39.28665680069217</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>35.61873762358818</v>
+        <v>39.75468364482434</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>9.551007101794996</v>
+        <v>13.18077532306907</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.18579942747977</v>
+        <v>23.02275345540712</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>33.02661589482727</v>
+        <v>28.84150057118883</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>13.50274065602263</v>
+        <v>15.8032639764675</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>22.68845780879755</v>
+        <v>24.13105486888855</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>31.81988586988065</v>
+        <v>37.63224481032195</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>2.976876875857872</v>
+        <v>4.720898397603658</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>22.53492138828361</v>
+        <v>13.07091982765668</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>26.38261861047105</v>
+        <v>19.55916532154021</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>4.57887920866722</v>
+        <v>4.980506798959642</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>36.72974417439548</v>
+        <v>27.61334647600461</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.08627062063781</v>
+        <v>46.75449020753436</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>40.20547185542166</v>
+        <v>24.47135210532651</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>47.6714931476042</v>
+        <v>47.48121623055685</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>52.24269182551313</v>
+        <v>51.30079275716079</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>9.88492888055319</v>
+        <v>11.52227742560472</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>39.67104184083571</v>
+        <v>26.98746413601599</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>46.90843935413653</v>
+        <v>35.65597334435078</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>47.79507589119351</v>
+        <v>50.00162408036924</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>41.80921185791335</v>
+        <v>49.14660846561254</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>48.8307616188941</v>
+        <v>54.4064872248349</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>50.66043841112693</v>
+        <v>54.58325417795963</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>20.18949390766866</v>
+        <v>25.51476744826723</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>45.89662437549803</v>
+        <v>50.68900892668016</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>48.59208296580888</v>
+        <v>50.23199468392292</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>20.23482703299831</v>
+        <v>24.81031368652103</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>11.75034483421868</v>
+        <v>6.307195207365371</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.32202313989394</v>
+        <v>42.71631619187359</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>40.45397798821159</v>
+        <v>44.27651045324265</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>15.67183273262997</v>
+        <v>7.03814283568413</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>53.79487791151984</v>
+        <v>60.16437870164583</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>60.53285434122022</v>
+        <v>65.13084222235017</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>60.37022360768639</v>
+        <v>65.65562297141679</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>67.81653921842104</v>
+        <v>72.46989329184379</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>71.2636291923493</v>
+        <v>74.98215793598408</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>24.94353520846891</v>
+        <v>32.40085569621593</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>60.52444728805431</v>
+        <v>68.22278674226074</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>66.22512256547608</v>
+        <v>69.11031410774399</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.66015249783851</v>
+        <v>53.31127068435366</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>43.38607869750882</v>
+        <v>45.87411409404874</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>49.46319799922847</v>
+        <v>49.23069317966817</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>52.7159160257317</v>
+        <v>54.07868175094076</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>20.2471121772184</v>
+        <v>17.16039216452332</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>46.69811990843598</v>
+        <v>47.37990390755846</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>50.26203249155765</v>
+        <v>49.39513075391139</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>20.1892460312355</v>
+        <v>16.22966922285439</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>32.67570578302701</v>
+        <v>31.70976709863821</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>40.80294600720426</v>
+        <v>40.86802450750861</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>13.21020720952653</v>
+        <v>5.188042027128109</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.92610962549501</v>
+        <v>40.44865542879478</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>43.15736408611661</v>
+        <v>43.80200067706683</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>17.69221099810399</v>
+        <v>8.924256192611569</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>56.25997152790051</v>
+        <v>61.05500145142044</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>64.00541042841428</v>
+        <v>69.31252357734287</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>63.00972243833862</v>
+        <v>67.06459610612339</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>69.742359329336</v>
+        <v>73.41218409908282</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>74.46358080322435</v>
+        <v>78.00363635454518</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.76490933243783</v>
+        <v>16.99061321896726</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>62.32782390786923</v>
+        <v>67.36716365846952</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>69.02538941768179</v>
+        <v>72.36387103124066</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>31.65174912962613</v>
+        <v>48.11522778777945</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>25.02770185613676</v>
+        <v>30.9148238102853</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>31.86876948200678</v>
+        <v>36.51501992454725</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>34.3881920491111</v>
+        <v>41.30171620212678</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>4.716823265436639</v>
+        <v>13.00800779231996</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>28.55876196210569</v>
+        <v>42.8641220351407</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>31.93329614493834</v>
+        <v>45.3265527129757</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>5.851144739548651</v>
+        <v>12.74859902555329</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>17.02454133491445</v>
+        <v>31.77683316281484</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>25.56571719614485</v>
+        <v>43.85644770899169</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-3.581689996799521</v>
+        <v>6.574572903956099</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>19.82287049300927</v>
+        <v>39.07046096835192</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>23.75168703896917</v>
+        <v>45.89712484195313</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-0.929923785610975</v>
+        <v>4.946170291207213</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>35.47136061183576</v>
+        <v>56.89287197308708</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>43.37477503390222</v>
+        <v>69.16551849003139</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>42.35484882239626</v>
+        <v>60.57805080265557</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>49.55452838140759</v>
+        <v>72.10250720760136</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>53.92393167132247</v>
+        <v>79.80079404491106</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>7.974121899280602</v>
+        <v>13.35582103544063</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>42.038279839552</v>
+        <v>65.11612849090983</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>48.67034882693658</v>
+        <v>73.52954004659823</v>
       </c>
     </row>
   </sheetData>
